--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xaltius_Trainings\6_Months_DSCC_Program\2. Data Analysis using Microsoft Excel\Information Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C2F5B-61AB-4F60-8D77-1651CA4281FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73943E9-5522-42A0-8755-0EED3B0F7D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="13" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +337,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B980A257-A507-4CF2-843A-8D350CE669EF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -658,16 +673,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -675,14 +690,14 @@
       <c r="A2" s="3">
         <v>210</v>
       </c>
-      <c r="B2" s="3" t="b">
+      <c r="B2" s="12" t="b">
         <f>ISERROR(A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -690,14 +705,14 @@
       <c r="A3" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="B3" s="3" t="b">
+      <c r="B3" s="12" t="b">
         <f t="shared" ref="B3:B7" si="0">ISERROR(A3)</f>
         <v>1</v>
       </c>
       <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -705,14 +720,14 @@
       <c r="A4" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B4" s="3" t="b">
+      <c r="B4" s="12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -721,14 +736,14 @@
         <f>25/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="3" t="b">
+      <c r="B5" s="12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -736,27 +751,27 @@
       <c r="A6" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="3" t="b">
+      <c r="B6" s="12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1080,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1825E-A1BD-40B6-A9F5-90500DB9A3BC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1164,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.81640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1161,16 +1176,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1841,15 +1856,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -2092,6 +2098,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F97D6047-CA76-4110-A5DB-68694E359D55}">
   <ds:schemaRefs>
@@ -2104,14 +2119,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{675137C4-41DE-4798-8345-0A491BC75E23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2685305-6070-42F2-B775-01E44F4BFF31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2128,4 +2135,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{675137C4-41DE-4798-8345-0A491BC75E23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73943E9-5522-42A0-8755-0EED3B0F7D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98993DB0-E5D2-43F7-97FD-AB87180BE9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -690,10 +690,7 @@
       <c r="A2" s="3">
         <v>210</v>
       </c>
-      <c r="B2" s="12" t="b">
-        <f>ISERROR(A2)</f>
-        <v>0</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
@@ -705,10 +702,7 @@
       <c r="A3" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="B3" s="12" t="b">
-        <f t="shared" ref="B3:B7" si="0">ISERROR(A3)</f>
-        <v>1</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
@@ -720,10 +714,7 @@
       <c r="A4" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B4" s="12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="b">
         <v>1</v>
       </c>
@@ -736,10 +727,7 @@
         <f>25/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="b">
         <v>1</v>
       </c>
@@ -751,10 +739,7 @@
       <c r="A6" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
@@ -764,10 +749,7 @@
     </row>
     <row r="7" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="b">
         <v>0</v>
       </c>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98993DB0-E5D2-43F7-97FD-AB87180BE9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967754D-871A-4D78-9170-C0846158C543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B980A257-A507-4CF2-843A-8D350CE669EF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A932A1-2533-48FF-A8ED-1D64F353EA39}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.81640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1175,10 +1175,7 @@
       <c r="A2" s="3">
         <v>210</v>
       </c>
-      <c r="B2" s="3" t="b">
-        <f>ISERR(A2)</f>
-        <v>0</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
@@ -1190,10 +1187,7 @@
       <c r="A3" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <f t="shared" ref="B3:B7" si="0">ISERR(A3)</f>
-        <v>1</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
@@ -1205,10 +1199,7 @@
       <c r="A4" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="b">
         <v>0</v>
       </c>
@@ -1221,10 +1212,7 @@
         <f>25/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <f>ISERR(A5)</f>
-        <v>1</v>
-      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="b">
         <v>1</v>
       </c>
@@ -1236,10 +1224,7 @@
       <c r="A6" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
@@ -1249,10 +1234,7 @@
     </row>
     <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="b">
         <v>0</v>
       </c>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967754D-871A-4D78-9170-C0846158C543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B99A4-0AFE-478C-9DA2-E2983E075591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1145,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A932A1-2533-48FF-A8ED-1D64F353EA39}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.81640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1249,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CFE21F-3CF0-40EA-BDCF-65053C830F88}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1264,16 +1256,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1281,10 +1273,7 @@
       <c r="A2" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B2" s="3" t="b">
-        <f>ISNA(A2)</f>
-        <v>0</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
@@ -1296,10 +1285,7 @@
       <c r="A3" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <f t="shared" ref="B3:B5" si="0">ISNA(A3)</f>
-        <v>1</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
@@ -1311,10 +1297,7 @@
       <c r="A4" s="3" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="b">
         <v>0</v>
       </c>
@@ -1326,22 +1309,13 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B99A4-0AFE-478C-9DA2-E2983E075591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F7A63E-38BD-45D7-A4FE-CCD999CAB3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="4" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Data</t>
   </si>
@@ -219,13 +219,16 @@
   </si>
   <si>
     <t>It returns TRUE because 6 is an even number</t>
+  </si>
+  <si>
+    <t>ISERROR(A2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +256,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -302,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B980A257-A507-4CF2-843A-8D350CE669EF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -747,6 +759,11 @@
       </c>
       <c r="D7" s="13" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A932A1-2533-48FF-A8ED-1D64F353EA39}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.81640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1243,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CFE21F-3CF0-40EA-BDCF-65053C830F88}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1326,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0664A4F-E828-44DC-8F1B-6EC63FECE778}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1337,10 +1354,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1348,19 +1365,13 @@
       <c r="A2" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B2" s="3">
-        <f>ERROR.TYPE(A2)</f>
-        <v>2</v>
-      </c>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B3" s="3">
-        <f>ERROR.TYPE(A3)</f>
-        <v>3</v>
-      </c>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1394,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396E1575-82D9-4A3D-838E-6668B60F6B54}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1404,13 +1415,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1418,10 +1429,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="b">
-        <f>ISNUMBER(A2)</f>
-        <v>1</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1430,10 +1438,7 @@
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <f t="shared" ref="B3:B6" si="0">ISNUMBER(A3)</f>
-        <v>0</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1442,10 +1447,7 @@
       <c r="A4" s="6">
         <v>44105</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1454,20 +1456,14 @@
       <c r="A5" s="3" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F7A63E-38BD-45D7-A4FE-CCD999CAB3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5174E0C6-3870-48D5-9F71-359CE23DC7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="4" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="5" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -1405,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396E1575-82D9-4A3D-838E-6668B60F6B54}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB81D2A-1FF6-43E4-A208-1E14411A5D21}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1489,13 +1489,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1503,10 +1503,7 @@
       <c r="A2" s="10">
         <v>210</v>
       </c>
-      <c r="B2" s="3" t="b">
-        <f>ISEVEN(A2)</f>
-        <v>1</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
@@ -1515,10 +1512,7 @@
       <c r="A3" s="10">
         <v>2.9</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <f t="shared" ref="B3:B5" si="0">ISEVEN(A3)</f>
-        <v>1</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
@@ -1527,10 +1521,7 @@
       <c r="A4" s="10">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1539,10 +1530,7 @@
       <c r="A5" s="10">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1552,10 +1540,7 @@
         <f>24/4</f>
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <f>ISEVEN(A6)</f>
-        <v>1</v>
-      </c>
+      <c r="B6" s="12"/>
       <c r="C6" s="5" t="s">
         <v>48</v>
       </c>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5174E0C6-3870-48D5-9F71-359CE23DC7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140E329B-C797-4F31-8D89-07801CEF375F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="5" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -1477,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB81D2A-1FF6-43E4-A208-1E14411A5D21}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716F6A59-A456-44CD-ADB5-25C90330B1FE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1566,13 +1566,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1580,10 +1580,7 @@
       <c r="A2" s="3">
         <v>113</v>
       </c>
-      <c r="B2" s="3" t="b">
-        <f>ISODD(A2)</f>
-        <v>1</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1592,10 +1589,7 @@
       <c r="A3" s="3">
         <v>3.21</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <f>ISODD(A3)</f>
-        <v>1</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1604,10 +1598,7 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <f>ISODD(A4)</f>
-        <v>0</v>
-      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1616,10 +1607,7 @@
       <c r="A5" s="3">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <f>ISODD(A5)</f>
-        <v>0</v>
-      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140E329B-C797-4F31-8D89-07801CEF375F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0975C82-6E4C-4845-A066-56D5FD468108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -1555,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716F6A59-A456-44CD-ADB5-25C90330B1FE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
@@ -1621,7 +1621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53AA0FF-E21D-4870-BDCD-1640A8FED62F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1630,55 +1632,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="3" t="b">
-        <f>ISBLANK(A2)</f>
-        <v>1</v>
-      </c>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <f>ISBLANK(A3)</f>
-        <v>0</v>
-      </c>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <f>ISBLANK(A4)</f>
-        <v>0</v>
-      </c>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44062</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <f>ISBLANK(A5)</f>
-        <v>0</v>
-      </c>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3.33</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <f>ISBLANK(A6)</f>
-        <v>0</v>
-      </c>
+      <c r="B6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0975C82-6E4C-4845-A066-56D5FD468108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A37F9-E14C-4519-A2A7-DE9C96EB594E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,6 +351,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1621,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53AA0FF-E21D-4870-BDCD-1640A8FED62F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1676,15 +1677,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C41967-AEF8-473D-8B39-2FD07C9DDF5F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1692,46 +1695,31 @@
       <c r="A2" s="4">
         <v>210</v>
       </c>
-      <c r="B2" s="4" t="b">
-        <f>ISLOGICAL(A2)</f>
-        <v>0</v>
-      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="b">
-        <f>ISLOGICAL(A3)</f>
-        <v>0</v>
-      </c>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <f t="shared" ref="B4:B6" si="0">ISLOGICAL(A4)</f>
-        <v>1</v>
-      </c>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>43871</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A37F9-E14C-4519-A2A7-DE9C96EB594E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFABD5E-AE22-4604-AFBD-8D55713020F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -777,15 +777,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DBAC1-C631-410C-9EA6-8529BEAFE364}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -793,46 +795,31 @@
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="b">
-        <f>ISTEXT(A2)</f>
-        <v>1</v>
-      </c>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>123</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <f t="shared" ref="B3:B6" si="0">ISTEXT(A3)</f>
-        <v>0</v>
-      </c>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44053</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>13.24</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1677,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C41967-AEF8-473D-8B39-2FD07C9DDF5F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFABD5E-AE22-4604-AFBD-8D55713020F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B030B0D4-9D5C-485F-91A9-5166D7244855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,9 +335,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -678,16 +675,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -695,11 +692,11 @@
       <c r="A2" s="3">
         <v>210</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -707,11 +704,11 @@
       <c r="A3" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -719,11 +716,11 @@
       <c r="A4" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -732,11 +729,11 @@
         <f>25/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -744,26 +741,26 @@
       <c r="A6" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -777,17 +774,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DBAC1-C631-410C-9EA6-8529BEAFE364}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -795,31 +792,31 @@
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>123</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44053</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>13.24</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -830,17 +827,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A8142-A530-47DB-A3E5-EA9B0523214D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -848,45 +845,30 @@
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="4" t="b">
-        <f>ISNONTEXT(A2)</f>
-        <v>0</v>
-      </c>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="b">
-        <f>ISNONTEXT(A3)</f>
-        <v>1</v>
-      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>78</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <f>ISNONTEXT(A4)</f>
-        <v>1</v>
-      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <f>ISNONTEXT(A5)</f>
-        <v>1</v>
-      </c>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <f>ISNONTEXT(A6)</f>
-        <v>0</v>
-      </c>
+      <c r="B6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1155,16 +1137,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1172,7 +1154,7 @@
       <c r="A2" s="3">
         <v>210</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
@@ -1184,7 +1166,7 @@
       <c r="A3" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
@@ -1196,7 +1178,7 @@
       <c r="A4" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="b">
         <v>0</v>
       </c>
@@ -1209,7 +1191,7 @@
         <f>25/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="b">
         <v>1</v>
       </c>
@@ -1221,7 +1203,7 @@
       <c r="A6" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
@@ -1231,7 +1213,7 @@
     </row>
     <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="b">
         <v>0</v>
       </c>
@@ -1261,16 +1243,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1278,7 +1260,7 @@
       <c r="A2" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
@@ -1290,7 +1272,7 @@
       <c r="A3" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
@@ -1302,7 +1284,7 @@
       <c r="A4" s="3" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="b">
         <v>0</v>
       </c>
@@ -1314,7 +1296,7 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1342,10 +1324,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1353,13 +1335,13 @@
       <c r="A2" s="3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1403,13 +1385,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1417,7 +1399,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1408,7 @@
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1435,7 +1417,7 @@
       <c r="A4" s="6">
         <v>44105</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1444,14 +1426,14 @@
       <c r="A5" s="3" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1477,48 +1459,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>210</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2.9</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12"/>
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>25</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1528,7 +1510,7 @@
         <f>24/4</f>
         <v>6</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="5" t="s">
         <v>48</v>
       </c>
@@ -1554,13 +1536,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1568,7 +1550,7 @@
       <c r="A2" s="3">
         <v>113</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1577,7 +1559,7 @@
       <c r="A3" s="3">
         <v>3.21</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1586,7 +1568,7 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1577,7 @@
       <c r="A5" s="3">
         <v>24</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
@@ -1620,40 +1602,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44062</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3.33</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1671,10 +1653,10 @@
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1682,31 +1664,31 @@
       <c r="A2" s="4">
         <v>210</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>43871</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B030B0D4-9D5C-485F-91A9-5166D7244855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05286589-9C92-43C3-8C9C-57317B5AA2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="8" activeTab="11" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A8142-A530-47DB-A3E5-EA9B0523214D}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -879,15 +879,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393B0455-DDEB-46D8-809D-6130406F04FA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -895,46 +897,31 @@
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4" t="b">
-        <f>ISREF(A2)</f>
-        <v>1</v>
-      </c>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="4" t="b">
-        <f>ISREF(A2:A3)</f>
-        <v>1</v>
-      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <f>ISREF("apple")</f>
-        <v>0</v>
-      </c>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>150</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <f>ISREF(150)</f>
-        <v>0</v>
-      </c>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <f>ISREF(A6)</f>
-        <v>1</v>
-      </c>
+      <c r="B6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05286589-9C92-43C3-8C9C-57317B5AA2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5122C6-EF7C-473B-AD63-17E20051D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="8" activeTab="11" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393B0455-DDEB-46D8-809D-6130406F04FA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B6C1E6-B3E7-4BF3-AA5A-498C591333F4}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -942,19 +942,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -972,10 +972,7 @@
         <f>C2*12</f>
         <v>30000</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <f>_xlfn.ISFORMULA(D2)</f>
-        <v>1</v>
-      </c>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -991,10 +988,7 @@
         <f t="shared" ref="D3:D4" si="0">C3*12</f>
         <v>24000</v>
       </c>
-      <c r="E3" s="4" t="b">
-        <f t="shared" ref="E3:E5" si="1">_xlfn.ISFORMULA(D3)</f>
-        <v>1</v>
-      </c>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1010,10 +1004,7 @@
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="E4" s="4" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1028,10 +1019,7 @@
       <c r="D5" s="3">
         <v>21600</v>
       </c>
-      <c r="E5" s="4" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5122C6-EF7C-473B-AD63-17E20051D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F871CF-7FC5-434A-BB27-CA8AD37E1E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="13" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -313,12 +313,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -675,92 +672,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>210</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="e">
+      <c r="A3" s="2" t="e">
         <v>#REF!</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="3" t="b">
+      <c r="B3" s="10"/>
+      <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="e">
+      <c r="A4" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="3" t="b">
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="e">
+      <c r="A5" s="2" t="e">
         <f>25/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3" t="b">
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="e">
+      <c r="A6" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3" t="b">
+      <c r="B6" s="10"/>
+      <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -781,42 +778,42 @@
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>123</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>44053</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>13.24</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -834,41 +831,41 @@
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>78</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14"/>
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,42 +883,42 @@
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>150</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B6C1E6-B3E7-4BF3-AA5A-498C591333F4}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -942,84 +939,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2500</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>C2*12</f>
         <v>30000</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D4" si="0">C3*12</f>
         <v>24000</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1800</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1800</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>21600</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,62 +1028,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1825E-A1BD-40B6-A9F5-90500DB9A3BC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>125</v>
       </c>
-      <c r="B2" s="3">
-        <f>TYPE(A2)</f>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B5" si="0">TYPE(A3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="e">
+      <c r="A5" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
-        <f>TYPE({1,2,3,4})</f>
-        <v>64</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1112,87 +1094,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>210</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="e">
+      <c r="A3" s="2" t="e">
         <v>#REF!</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="3" t="b">
+      <c r="B3" s="10"/>
+      <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="e">
+      <c r="A4" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="e">
+      <c r="A5" s="2" t="e">
         <f>25/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3" t="b">
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="e">
+      <c r="A6" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3" t="b">
+      <c r="B6" s="10"/>
+      <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1218,64 +1200,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="e">
+      <c r="A2" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="e">
+      <c r="A3" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="3" t="b">
+      <c r="B3" s="10"/>
+      <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="e">
+      <c r="A4" s="2" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1299,24 +1281,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="e">
+      <c r="A2" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="e">
+      <c r="A3" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1360,56 +1342,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>44105</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="e">
+      <c r="A5" s="2" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1434,59 +1416,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>210</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2.9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>25</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <f>24/4</f>
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1511,49 +1493,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>113</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>3.21</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>24</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1577,40 +1559,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>44062</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>3.33</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1628,42 +1610,42 @@
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>210</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="b">
+      <c r="A4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14"/>
+      <c r="A5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>43871</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F871CF-7FC5-434A-BB27-CA8AD37E1E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6E4CF-2C0A-4C47-9061-C34C87507264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="13" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Data</t>
   </si>
@@ -222,13 +222,19 @@
   </si>
   <si>
     <t>ISERROR(A2)</t>
+  </si>
+  <si>
+    <t>ISERR(A2)</t>
+  </si>
+  <si>
+    <t>ISNA(A2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +266,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -313,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,6 +360,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1825E-A1BD-40B6-A9F5-90500DB9A3BC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1079,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A932A1-2533-48FF-A8ED-1D64F353EA39}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.81640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1178,6 +1193,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1185,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CFE21F-3CF0-40EA-BDCF-65053C830F88}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1259,6 +1279,11 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6E4CF-2C0A-4C47-9061-C34C87507264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D83D3A5-7A67-43C7-9B69-B77CA49B307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>Data</t>
   </si>
@@ -228,13 +228,31 @@
   </si>
   <si>
     <t>ISNA(A2)</t>
+  </si>
+  <si>
+    <t>ERROR.TYPE(A2)</t>
+  </si>
+  <si>
+    <t>ISNUMBER(A2)</t>
+  </si>
+  <si>
+    <t>ISEVEN(A2)</t>
+  </si>
+  <si>
+    <t>ISODD(A2)</t>
+  </si>
+  <si>
+    <t>ISBLANK(A2)</t>
+  </si>
+  <si>
+    <t>ISLOGICAL(A2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +283,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -274,6 +300,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -327,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,9 +392,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CFE21F-3CF0-40EA-BDCF-65053C830F88}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1296,7 +1343,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1329,8 +1376,10 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -1355,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396E1575-82D9-4A3D-838E-6668B60F6B54}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1420,6 +1469,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1427,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB81D2A-1FF6-43E4-A208-1E14411A5D21}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1440,7 +1494,7 @@
     <col min="3" max="3" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>210</v>
       </c>
@@ -1460,7 +1514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2.9</v>
       </c>
@@ -1469,7 +1523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -1478,7 +1532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>25</v>
       </c>
@@ -1487,7 +1541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <f>24/4</f>
         <v>6</v>
@@ -1495,6 +1549,11 @@
       <c r="B6" s="10"/>
       <c r="C6" s="4" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1505,19 +1564,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716F6A59-A456-44CD-ADB5-25C90330B1FE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="3" max="3" width="31.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>113</v>
       </c>
@@ -1537,7 +1597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>3.21</v>
       </c>
@@ -1546,7 +1606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1555,7 +1615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>24</v>
       </c>
@@ -1564,6 +1624,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1571,16 +1636,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53AA0FF-E21D-4870-BDCD-1640A8FED62F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1619,6 +1684,11 @@
       </c>
       <c r="B6" s="10"/>
     </row>
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1626,15 +1696,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C41967-AEF8-473D-8B39-2FD07C9DDF5F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1642,35 +1712,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>210</v>
       </c>
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>5</v>
       </c>
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>43871</v>
       </c>
       <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="19" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D83D3A5-7A67-43C7-9B69-B77CA49B307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB12697-862D-410D-9A2E-8615C3342B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Data</t>
   </si>
@@ -246,6 +246,21 @@
   </si>
   <si>
     <t>ISLOGICAL(A2)</t>
+  </si>
+  <si>
+    <t>ISTEXT(A2)</t>
+  </si>
+  <si>
+    <t>ISNONTEXT(A2)</t>
+  </si>
+  <si>
+    <t>ISREF(A2)</t>
+  </si>
+  <si>
+    <t>ISFORMULA(D2)</t>
+  </si>
+  <si>
+    <t>TYPE(A2)</t>
   </si>
 </sst>
 </file>
@@ -724,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B980A257-A507-4CF2-843A-8D350CE669EF}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -831,15 +846,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6DBAC1-C631-410C-9EA6-8529BEAFE364}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -847,35 +862,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>123</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>44053</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>13.24</v>
       </c>
       <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -884,10 +904,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A8142-A530-47DB-A3E5-EA9B0523214D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -929,6 +949,11 @@
       </c>
       <c r="B6" s="13"/>
     </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -936,15 +961,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393B0455-DDEB-46D8-809D-6130406F04FA}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -952,35 +977,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>150</v>
       </c>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -989,15 +1019,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B6C1E6-B3E7-4BF3-AA5A-498C591333F4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1080,6 +1111,11 @@
       </c>
       <c r="E5" s="13"/>
     </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1088,15 +1124,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1825E-A1BD-40B6-A9F5-90500DB9A3BC}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1104,33 +1140,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>125</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C41967-AEF8-473D-8B39-2FD07C9DDF5F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB12697-862D-410D-9A2E-8615C3342B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4430EB1-9FFF-438E-A3AC-B49EBBFDB485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4430EB1-9FFF-438E-A3AC-B49EBBFDB485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867DB966-002C-4630-98E7-278DA5E193C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867DB966-002C-4630-98E7-278DA5E193C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BDF9D4-5FEB-4FED-AB2E-8508D664940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
@@ -740,7 +740,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Information_Functions/Information_Functions_InClass.xlsx
+++ b/Information_Functions/Information_Functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Information_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BDF9D4-5FEB-4FED-AB2E-8508D664940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99457EC-4163-4E3D-85E6-E7739E2637BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="8" activeTab="13" xr2:uid="{177B48F1-8561-485B-B8DB-28DA67056B00}"/>
   </bookViews>
   <sheets>
     <sheet name="iserror" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,9 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -416,7 +413,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -739,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B980A257-A507-4CF2-843A-8D350CE669EF}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -766,11 +763,14 @@
       <c r="A2" s="2">
         <v>210</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="b">
+        <f>ISERROR(A2)</f>
+        <v>0</v>
+      </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -778,11 +778,14 @@
       <c r="A3" s="2" t="e">
         <v>#REF!</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="b">
+        <f>ISERROR(A3)</f>
+        <v>1</v>
+      </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -790,11 +793,14 @@
       <c r="A4" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="b">
+        <f>ISERROR(A4)</f>
+        <v>1</v>
+      </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -803,11 +809,14 @@
         <f>25/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="b">
+        <f>ISERROR(A5)</f>
+        <v>1</v>
+      </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -815,26 +824,32 @@
       <c r="A6" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="b">
+        <f>ISERROR(A6)</f>
+        <v>1</v>
+      </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="b">
+        <f>ISERROR(A7)</f>
+        <v>0</v>
+      </c>
       <c r="C7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -849,7 +864,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -866,34 +881,49 @@
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="b">
+        <f>ISTEXT(A2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>123</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="b">
+        <f>ISTEXT(A3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="b">
+        <f>ISTEXT(A4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>44053</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="b">
+        <f>ISTEXT(A5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>13.24</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="b">
+        <f>ISTEXT(A6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -907,7 +937,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -924,33 +954,48 @@
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="12" t="b">
+        <f>ISNONTEXT(A2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="13"/>
+      <c r="B3" s="12" t="b">
+        <f>ISNONTEXT(A3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>78</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12" t="b">
+        <f>ISNONTEXT(A4)</f>
+        <v>1</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12" t="b">
+        <f>ISNONTEXT(A5)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12" t="b">
+        <f>ISNONTEXT(A6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -964,7 +1009,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -981,34 +1026,49 @@
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="12" t="b">
+        <f>ISREF(A2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="12" t="b">
+        <f>ISREF(A3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12" t="b">
+        <f>ISREF(A4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>150</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12" t="b">
+        <f>ISREF(A5)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12" t="b">
+        <f>ISREF(A6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1022,7 +1082,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1062,7 +1122,10 @@
         <f>C2*12</f>
         <v>30000</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="12" t="b">
+        <f>_xlfn.ISFORMULA(D2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1078,7 +1141,10 @@
         <f t="shared" ref="D3:D4" si="0">C3*12</f>
         <v>24000</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12" t="b">
+        <f>_xlfn.ISFORMULA(D3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1094,7 +1160,10 @@
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12" t="b">
+        <f>_xlfn.ISFORMULA(D4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1109,10 +1178,13 @@
       <c r="D5" s="2">
         <v>21600</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12" t="b">
+        <f>_xlfn.ISFORMULA(D5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1126,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1825E-A1BD-40B6-A9F5-90500DB9A3BC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1144,32 +1216,47 @@
       <c r="A2" s="2">
         <v>125</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <f>TYPE(A2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <f>TYPE(A3)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f>TYPE(A4)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <f>TYPE(A5)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <f>TYPE({1,2,3,4})</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1185,7 +1272,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.81640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1214,7 +1301,10 @@
       <c r="A2" s="2">
         <v>210</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="b">
+        <f>ISERR(A2)</f>
+        <v>0</v>
+      </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
@@ -1226,7 +1316,10 @@
       <c r="A3" s="2" t="e">
         <v>#REF!</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="b">
+        <f>ISERR(A3)</f>
+        <v>1</v>
+      </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
@@ -1238,7 +1331,10 @@
       <c r="A4" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="b">
+        <f>ISERR(A4)</f>
+        <v>0</v>
+      </c>
       <c r="C4" s="2" t="b">
         <v>0</v>
       </c>
@@ -1251,7 +1347,10 @@
         <f>25/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="b">
+        <f>ISERR(A5)</f>
+        <v>1</v>
+      </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
@@ -1263,7 +1362,10 @@
       <c r="A6" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="b">
+        <f>ISERR(A6)</f>
+        <v>1</v>
+      </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
@@ -1273,7 +1375,10 @@
     </row>
     <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="b">
+        <f>ISERR(A7)</f>
+        <v>0</v>
+      </c>
       <c r="C7" s="2" t="b">
         <v>0</v>
       </c>
@@ -1282,7 +1387,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1325,7 +1430,10 @@
       <c r="A2" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="b">
+        <f>ISNA(A2)</f>
+        <v>0</v>
+      </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
@@ -1337,7 +1445,10 @@
       <c r="A3" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="b">
+        <f>ISNA(A3)</f>
+        <v>1</v>
+      </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
@@ -1349,7 +1460,10 @@
       <c r="A4" s="2" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="b">
+        <f>ISNA(A4)</f>
+        <v>0</v>
+      </c>
       <c r="C4" s="2" t="b">
         <v>0</v>
       </c>
@@ -1361,7 +1475,10 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="b">
+        <f>ISNA(A5)</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1487,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1384,7 +1501,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1405,20 +1522,26 @@
       <c r="A2" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10">
+        <f>ERROR.TYPE(A2)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10">
+        <f>ERROR.TYPE(A3)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1"/>
@@ -1448,7 +1571,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1471,7 +1594,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="b">
+        <f>ISNUMBER(A2)</f>
+        <v>1</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1606,10 @@
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="b">
+        <f>ISNUMBER(A3)</f>
+        <v>0</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1489,7 +1618,10 @@
       <c r="A4" s="5">
         <v>44105</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="b">
+        <f>ISNUMBER(A4)</f>
+        <v>1</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1498,20 +1630,26 @@
       <c r="A5" s="2" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="b">
+        <f>ISNUMBER(A5)</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="b">
+        <f>ISNUMBER(A6)</f>
+        <v>0</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1550,7 +1688,10 @@
       <c r="A2" s="8">
         <v>210</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="b">
+        <f>ISEVEN(A2)</f>
+        <v>1</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1559,7 +1700,10 @@
       <c r="A3" s="8">
         <v>2.9</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="b">
+        <f>ISEVEN(A3)</f>
+        <v>1</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1712,10 @@
       <c r="A4" s="8">
         <v>0</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="b">
+        <f>ISEVEN(A4)</f>
+        <v>1</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1577,7 +1724,10 @@
       <c r="A5" s="8">
         <v>25</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="b">
+        <f>ISEVEN(A5)</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1587,13 +1737,16 @@
         <f>24/4</f>
         <v>6</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="b">
+        <f>ISEVEN(A6)</f>
+        <v>1</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1608,7 +1761,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1633,7 +1786,10 @@
       <c r="A2" s="2">
         <v>113</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="b">
+        <f>ISODD(A2)</f>
+        <v>1</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1642,7 +1798,10 @@
       <c r="A3" s="2">
         <v>3.21</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="b">
+        <f>ISODD(A3)</f>
+        <v>1</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +1810,10 @@
       <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="b">
+        <f>ISODD(A4)</f>
+        <v>0</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1660,13 +1822,16 @@
       <c r="A5" s="2">
         <v>24</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="b">
+        <f>ISODD(A5)</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1680,7 +1845,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1699,34 +1864,49 @@
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="b">
+        <f>ISBLANK(A2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="b">
+        <f>ISBLANK(A3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="b">
+        <f>ISBLANK(A4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>44062</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="b">
+        <f>ISBLANK(A5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3.33</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="b">
+        <f>ISBLANK(A6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1740,7 +1920,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1757,34 +1937,49 @@
       <c r="A2" s="3">
         <v>210</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="12" t="b">
+        <f>ISLOGICAL(A2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>5</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="12" t="b">
+        <f>ISLOGICAL(A3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12" t="b">
+        <f>ISLOGICAL(A4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12" t="b">
+        <f>ISLOGICAL(A5)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>43871</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12" t="b">
+        <f>ISLOGICAL(A6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1805,6 +2000,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -2047,15 +2251,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F97D6047-CA76-4110-A5DB-68694E359D55}">
   <ds:schemaRefs>
@@ -2068,6 +2263,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{675137C4-41DE-4798-8345-0A491BC75E23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2685305-6070-42F2-B775-01E44F4BFF31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2084,12 +2287,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{675137C4-41DE-4798-8345-0A491BC75E23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>